--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
         <v>1.88</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
         <v>4.5</v>
@@ -691,28 +691,28 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q2" t="n">
         <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T2" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V2" t="n">
         <v>1.28</v>
@@ -730,13 +730,13 @@
         <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="n">
         <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
         <v>18.5</v>
@@ -751,7 +751,7 @@
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -766,7 +766,7 @@
         <v>32</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN2" t="n">
         <v>10.5</v>
@@ -940,16 +940,16 @@
         <v>1.81</v>
       </c>
       <c r="G4" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="I4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
         <v>4.3</v>
@@ -970,7 +970,7 @@
         <v>2.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1075,19 +1075,19 @@
         <v>3.7</v>
       </c>
       <c r="G5" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="I5" t="n">
         <v>2.02</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1231,28 +1231,28 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1534,10 +1534,10 @@
         <v>6.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
         <v>140</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -673,7 +673,7 @@
         <v>1.88</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I2" t="n">
         <v>4.5</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="I4" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
         <v>1.78</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="I5" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>2.86</v>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="H6" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="I6" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J6" t="n">
         <v>3.4</v>
@@ -1249,7 +1249,7 @@
         <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U6" t="n">
         <v>2.18</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
@@ -1348,10 +1348,10 @@
         <v>7.4</v>
       </c>
       <c r="H7" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.57</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.58</v>
       </c>
       <c r="J7" t="n">
         <v>4.4</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H8" t="n">
         <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -1534,10 +1534,10 @@
         <v>6.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
         <v>140</v>
@@ -1549,10 +1549,10 @@
         <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="n">
         <v>11.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -673,19 +673,19 @@
         <v>1.88</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -715,64 +715,64 @@
         <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
         <v>2.14</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB2" t="n">
         <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN2" t="n">
         <v>10.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -811,7 +811,7 @@
         <v>1.76</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J3" t="n">
         <v>3.6</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" t="n">
         <v>1.78</v>
@@ -1075,10 +1075,10 @@
         <v>4.2</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H5" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="I5" t="n">
         <v>1.86</v>
@@ -1087,7 +1087,7 @@
         <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="G6" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H6" t="n">
         <v>2.66</v>
       </c>
       <c r="I6" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
         <v>3.4</v>
@@ -1249,7 +1249,7 @@
         <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U6" t="n">
         <v>2.18</v>
@@ -1351,13 +1351,13 @@
         <v>1.56</v>
       </c>
       <c r="I7" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="J7" t="n">
         <v>4.4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1480,13 +1480,13 @@
         <v>2.28</v>
       </c>
       <c r="G8" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
         <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -1534,7 +1534,7 @@
         <v>6.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z8" t="n">
         <v>29</v>
@@ -1561,7 +1561,7 @@
         <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI8" t="n">
         <v>160</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -673,7 +673,7 @@
         <v>1.88</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I2" t="n">
         <v>4.6</v>
@@ -718,7 +718,7 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X2" t="n">
         <v>19.5</v>
@@ -748,7 +748,7 @@
         <v>12.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH2" t="n">
         <v>17.5</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="G5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>2.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="G6" t="n">
         <v>2.96</v>
@@ -1216,7 +1216,7 @@
         <v>2.66</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J6" t="n">
         <v>3.4</v>
@@ -1249,10 +1249,10 @@
         <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q7" t="n">
         <v>1.97</v>
@@ -1384,7 +1384,7 @@
         <v>3.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U7" t="n">
         <v>1.87</v>
@@ -1519,7 +1519,7 @@
         <v>7.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="U8" t="n">
         <v>1.59</v>
@@ -1549,7 +1549,7 @@
         <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
         <v>95</v>
@@ -1567,10 +1567,10 @@
         <v>160</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AK8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL8" t="n">
         <v>95</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>1.88</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
         <v>4.6</v>
@@ -802,118 +802,118 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.7</v>
       </c>
-      <c r="G3" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K3" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:35:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>4.4</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.02</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>11:35:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.8</v>
+        <v>1.76</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>1.79</v>
+        <v>4.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.96</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.56</v>
+        <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,66 +1193,66 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="G6" t="n">
-        <v>2.96</v>
+        <v>4.9</v>
       </c>
       <c r="H6" t="n">
-        <v>2.66</v>
+        <v>1.71</v>
       </c>
       <c r="I6" t="n">
-        <v>2.72</v>
+        <v>1.85</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.92</v>
+        <v>2.56</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1.52</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,64 +1261,64 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,61 +1333,61 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>7.4</v>
+        <v>2.96</v>
       </c>
       <c r="H7" t="n">
-        <v>1.56</v>
+        <v>2.66</v>
       </c>
       <c r="I7" t="n">
-        <v>1.58</v>
+        <v>2.72</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.06</v>
+        <v>1.77</v>
       </c>
       <c r="U7" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,193 +1396,328 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.6</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>14.5</v>
+        <v>42</v>
       </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AF7" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="AI7" t="n">
         <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>280</v>
+        <v>46</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.199999999999999</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>280</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>2026-01-02</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Rayo Vallecano</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Getafe</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F9" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N9" t="n">
         <v>2.3</v>
       </c>
-      <c r="H8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="O9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P9" t="n">
         <v>1.41</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>3.3</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R9" t="n">
         <v>1.14</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S9" t="n">
         <v>7.6</v>
       </c>
-      <c r="T8" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="T9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL9" t="n">
         <v>95</v>
       </c>
-      <c r="AF8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1000</v>
+      <c r="AM9" t="n">
+        <v>430</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -670,7 +670,7 @@
         <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H2" t="n">
         <v>4.3</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="n">
         <v>5.4</v>
@@ -811,7 +811,7 @@
         <v>1.34</v>
       </c>
       <c r="I3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J3" t="n">
         <v>3.7</v>
@@ -823,16 +823,16 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>2.02</v>
+        <v>2.32</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
         <v>1.64</v>
@@ -841,25 +841,25 @@
         <v>1.38</v>
       </c>
       <c r="S3" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="W3" t="n">
         <v>1.23</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,13 +868,13 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,10 +883,10 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -949,100 +949,100 @@
         <v>1000</v>
       </c>
       <c r="J4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L4" t="n">
         <v>1.01</v>
       </c>
-      <c r="K4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q4" t="n">
         <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1075,109 +1075,109 @@
         <v>1.76</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="H5" t="n">
         <v>4.4</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
         <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q5" t="n">
         <v>1.78</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="G6" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="I6" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
         <v>3.6</v>
@@ -1480,13 +1480,13 @@
         <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="I8" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="J8" t="n">
         <v>4.4</v>
@@ -1504,22 +1504,22 @@
         <v>3.85</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U8" t="n">
         <v>1.87</v>
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
         <v>7.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA8" t="n">
         <v>14.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD8" t="n">
         <v>10.5</v>
@@ -1555,10 +1555,10 @@
         <v>17.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AH8" t="n">
         <v>27</v>
@@ -1567,22 +1567,22 @@
         <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AK8" t="n">
         <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AM8" t="n">
         <v>190</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="9">
@@ -1618,7 +1618,7 @@
         <v>2.26</v>
       </c>
       <c r="H9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
         <v>4.5</v>
@@ -1636,13 +1636,13 @@
         <v>1.17</v>
       </c>
       <c r="N9" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="O9" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P9" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="Q9" t="n">
         <v>3.3</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G2" t="n">
         <v>1.89</v>
@@ -676,7 +676,7 @@
         <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -712,10 +712,10 @@
         <v>1.7</v>
       </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W2" t="n">
         <v>2.12</v>
@@ -739,10 +739,10 @@
         <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF2" t="n">
         <v>12.5</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>2.82</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>1.04</v>
@@ -949,10 +949,10 @@
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,13 +961,13 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="Q4" t="n">
         <v>1.01</v>
@@ -988,61 +988,61 @@
         <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>990</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB4" t="n">
-        <v>990</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AG4" t="n">
-        <v>990</v>
+        <v>34</v>
       </c>
       <c r="AH4" t="n">
-        <v>990</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
@@ -1093,7 +1093,7 @@
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
         <v>2.2</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.7</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>5.7</v>
+        <v>2.88</v>
       </c>
       <c r="H6" t="n">
-        <v>1.58</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>1.72</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>2.68</v>
+        <v>1.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.47</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="G7" t="n">
-        <v>2.96</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.66</v>
+        <v>1.57</v>
       </c>
       <c r="I7" t="n">
-        <v>2.72</v>
+        <v>1.71</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>3.7</v>
+        <v>2.68</v>
       </c>
       <c r="O7" t="n">
-        <v>1.34</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>2.68</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S7" t="n">
         <v>2.02</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.6</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="n">
         <v>100</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,61 +1468,61 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="G8" t="n">
-        <v>7.2</v>
+        <v>2.96</v>
       </c>
       <c r="H8" t="n">
-        <v>1.58</v>
+        <v>2.66</v>
       </c>
       <c r="I8" t="n">
-        <v>1.59</v>
+        <v>2.72</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,64 +1531,64 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.800000000000001</v>
+        <v>22</v>
       </c>
       <c r="AA8" t="n">
-        <v>14.5</v>
+        <v>42</v>
       </c>
       <c r="AB8" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AF8" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
         <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>260</v>
+        <v>46</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="n">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,66 +1598,66 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.24</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>2.26</v>
+        <v>7.2</v>
       </c>
       <c r="H9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J9" t="n">
         <v>4.4</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>4.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>2.32</v>
+        <v>3.85</v>
       </c>
       <c r="O9" t="n">
-        <v>1.75</v>
+        <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>1.4</v>
+        <v>1.98</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.3</v>
+        <v>1.99</v>
       </c>
       <c r="R9" t="n">
-        <v>1.14</v>
+        <v>1.37</v>
       </c>
       <c r="S9" t="n">
-        <v>7.6</v>
+        <v>3.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.6</v>
+        <v>2.06</v>
       </c>
       <c r="U9" t="n">
-        <v>1.58</v>
+        <v>1.87</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,57 +1666,192 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>260</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>180</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>7</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y10" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z10" t="n">
         <v>32</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA10" t="n">
         <v>160</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB10" t="n">
         <v>6</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC10" t="n">
         <v>7.4</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD10" t="n">
         <v>22</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE10" t="n">
         <v>110</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF10" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG10" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH10" t="n">
         <v>34</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI10" t="n">
         <v>170</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ10" t="n">
         <v>30</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK10" t="n">
         <v>38</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL10" t="n">
         <v>95</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM10" t="n">
         <v>430</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN10" t="n">
         <v>40</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO10" t="n">
         <v>240</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G2" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H2" t="n">
         <v>4.3</v>
@@ -682,7 +682,7 @@
         <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.34</v>
@@ -721,13 +721,13 @@
         <v>2.12</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA2" t="n">
         <v>100</v>
@@ -772,7 +772,7 @@
         <v>10.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -832,10 +832,10 @@
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
         <v>1.38</v>
@@ -844,7 +844,7 @@
         <v>2.44</v>
       </c>
       <c r="T3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
         <v>1.04</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:35:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.82</v>
+        <v>1.61</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.09</v>
+        <v>3.95</v>
       </c>
       <c r="K4" t="n">
-        <v>470</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.34</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>1.34</v>
+        <v>1.94</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>1.05</v>
+        <v>2.9</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="U4" t="n">
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>2.32</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>990</v>
       </c>
       <c r="Y4" t="n">
-        <v>18</v>
+        <v>990</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>24</v>
+        <v>990</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AE4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>990</v>
       </c>
       <c r="AH4" t="n">
-        <v>50</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,78 +1058,78 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:35:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.76</v>
+        <v>2.82</v>
       </c>
       <c r="G5" t="n">
-        <v>1.94</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>4.4</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="P5" t="n">
-        <v>2.04</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
         <v>1.78</v>
       </c>
       <c r="R5" t="n">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>2.64</v>
+        <v>1.78</v>
       </c>
       <c r="T5" t="n">
-        <v>1.58</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>990</v>
       </c>
       <c r="AC5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
         <v>990</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="G7" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="I7" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,19 +1366,19 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>2.68</v>
+        <v>4.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R7" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="S7" t="n">
         <v>2.02</v>
@@ -1387,22 +1387,22 @@
         <v>1.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="W7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
         <v>980</v>
@@ -1411,22 +1411,22 @@
         <v>38</v>
       </c>
       <c r="AC7" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="n">
         <v>65</v>
       </c>
       <c r="AG7" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AI7" t="n">
         <v>980</v>
@@ -1447,13 +1447,13 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.9</v>
+        <v>7.4</v>
       </c>
       <c r="G8" t="n">
-        <v>2.96</v>
+        <v>8.6</v>
       </c>
       <c r="H8" t="n">
-        <v>2.66</v>
+        <v>1.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.72</v>
+        <v>1.54</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="T8" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>22</v>
+        <v>9.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG8" t="n">
         <v>32</v>
       </c>
-      <c r="AF8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13</v>
-      </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AI8" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="n">
-        <v>46</v>
+        <v>300</v>
       </c>
       <c r="AK8" t="n">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,261 +1598,666 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>1.67</v>
       </c>
       <c r="G9" t="n">
-        <v>7.2</v>
+        <v>1.73</v>
       </c>
       <c r="H9" t="n">
-        <v>1.58</v>
+        <v>6.4</v>
       </c>
       <c r="I9" t="n">
-        <v>1.59</v>
+        <v>7.4</v>
       </c>
       <c r="J9" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.85</v>
+        <v>1.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.99</v>
+        <v>1.42</v>
       </c>
       <c r="R9" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="T9" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="U9" t="n">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.8</v>
+        <v>26</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.800000000000001</v>
+        <v>85</v>
       </c>
       <c r="AA9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>20</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AI9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL9" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>230</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>160</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2026-01-02</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Rayo Vallecano</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Getafe</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F12" t="n">
         <v>2.24</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G12" t="n">
         <v>2.28</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H12" t="n">
         <v>4.4</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I12" t="n">
         <v>4.6</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J12" t="n">
         <v>3</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K12" t="n">
         <v>3.05</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="L12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M12" t="n">
         <v>1.17</v>
       </c>
-      <c r="N10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="N12" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.75</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P12" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q12" t="n">
         <v>3.3</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R12" t="n">
         <v>1.14</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S12" t="n">
         <v>7.6</v>
       </c>
-      <c r="T10" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="T12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.58</v>
       </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="V12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB12" t="n">
         <v>6</v>
       </c>
-      <c r="AC10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH10" t="n">
+      <c r="AC12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
         <v>34</v>
       </c>
-      <c r="AI10" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ10" t="n">
+      <c r="AI12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>30</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK12" t="n">
         <v>38</v>
       </c>
-      <c r="AL10" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>430</v>
-      </c>
-      <c r="AN10" t="n">
+      <c r="AL12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>380</v>
+      </c>
+      <c r="AN12" t="n">
         <v>40</v>
       </c>
-      <c r="AO10" t="n">
-        <v>240</v>
+      <c r="AO12" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17:45:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Guimaraes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CD Nacional Funchal</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -673,10 +673,10 @@
         <v>1.88</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -691,7 +691,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -700,25 +700,25 @@
         <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="R2" t="n">
         <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="T2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X2" t="n">
         <v>18.5</v>
@@ -766,13 +766,13 @@
         <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
         <v>10.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G3" t="n">
         <v>5.4</v>
@@ -964,10 +964,10 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q4" t="n">
         <v>1.83</v>
@@ -979,7 +979,7 @@
         <v>2.9</v>
       </c>
       <c r="T4" t="n">
-        <v>1.68</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
         <v>1.04</v>
@@ -1102,16 +1102,16 @@
         <v>1.08</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
         <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>1.78</v>
+        <v>7.6</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1228,13 +1228,13 @@
         <v>1.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P6" t="n">
         <v>1.55</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
         <v>1.55</v>
       </c>
       <c r="I7" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1372,25 +1372,25 @@
         <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R7" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="S7" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="T7" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="V7" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="W7" t="n">
         <v>1.2</v>
@@ -1483,7 +1483,7 @@
         <v>8.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="I8" t="n">
         <v>1.54</v>
@@ -1495,16 +1495,16 @@
         <v>4.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
         <v>1.89</v>
@@ -1513,16 +1513,16 @@
         <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V8" t="n">
         <v>2.84</v>
@@ -1549,7 +1549,7 @@
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>20</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="G9" t="n">
         <v>1.73</v>
       </c>
       <c r="H9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I9" t="n">
         <v>7.4</v>
@@ -1633,7 +1633,7 @@
         <v>1.47</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
         <v>1.7</v>
@@ -1648,25 +1648,25 @@
         <v>1.42</v>
       </c>
       <c r="R9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S9" t="n">
         <v>3.7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
         <v>1.61</v>
       </c>
       <c r="V9" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="W9" t="n">
         <v>2.36</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
         <v>26</v>
@@ -1750,7 +1750,7 @@
         <v>2.9</v>
       </c>
       <c r="G10" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H10" t="n">
         <v>2.66</v>
@@ -1777,13 +1777,13 @@
         <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
         <v>3.6</v>
@@ -1798,7 +1798,7 @@
         <v>1.58</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
@@ -1816,7 +1816,7 @@
         <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD10" t="n">
         <v>12</v>
@@ -1846,7 +1846,7 @@
         <v>46</v>
       </c>
       <c r="AM10" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN10" t="n">
         <v>30</v>
@@ -1915,7 +1915,7 @@
         <v>1.98</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R11" t="n">
         <v>1.37</v>
@@ -1987,7 +1987,7 @@
         <v>160</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -2068,7 +2068,7 @@
         <v>1.28</v>
       </c>
       <c r="W12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X12" t="n">
         <v>6.6</v>
@@ -2083,13 +2083,13 @@
         <v>140</v>
       </c>
       <c r="AB12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
         <v>100</v>
@@ -2098,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
         <v>34</v>
@@ -2107,22 +2107,22 @@
         <v>150</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="n">
         <v>38</v>
       </c>
       <c r="AL12" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM12" t="n">
         <v>380</v>
       </c>
       <c r="AN12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO12" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13">
@@ -2164,100 +2164,100 @@
         <v>5.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
         <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P13" t="n">
         <v>1.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.86</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.88</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -685,7 +685,7 @@
         <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -700,7 +700,7 @@
         <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
         <v>1.49</v>
@@ -709,7 +709,7 @@
         <v>2.92</v>
       </c>
       <c r="T2" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
         <v>2.28</v>
@@ -718,10 +718,10 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -742,7 +742,7 @@
         <v>17.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="n">
         <v>12.5</v>
@@ -772,7 +772,7 @@
         <v>10.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -844,7 +844,7 @@
         <v>2.44</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U3" t="n">
         <v>1.04</v>
@@ -940,7 +940,7 @@
         <v>1.61</v>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="H4" t="n">
         <v>5.5</v>
@@ -949,7 +949,7 @@
         <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>4.6</v>
@@ -961,16 +961,16 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="O4" t="n">
         <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="R4" t="n">
         <v>1.3</v>
@@ -979,22 +979,22 @@
         <v>2.9</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="V4" t="n">
         <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="X4" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>990</v>
+        <v>28</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,34 +1003,34 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>990</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>990</v>
+        <v>13.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>990</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>990</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1093,13 +1093,13 @@
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
         <v>1.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P5" t="n">
         <v>1.33</v>
@@ -1210,7 +1210,7 @@
         <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="H6" t="n">
         <v>3.15</v>
@@ -1258,7 +1258,7 @@
         <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1348,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="I7" t="n">
         <v>1.66</v>
@@ -1366,10 +1366,10 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
         <v>2.68</v>
@@ -1402,25 +1402,25 @@
         <v>990</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AA7" t="n">
         <v>980</v>
       </c>
       <c r="AB7" t="n">
-        <v>38</v>
+        <v>990</v>
       </c>
       <c r="AC7" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG7" t="n">
         <v>990</v>
@@ -1432,22 +1432,22 @@
         <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM7" t="n">
         <v>75</v>
       </c>
-      <c r="AL7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>100</v>
-      </c>
       <c r="AN7" t="n">
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="G8" t="n">
         <v>8.6</v>
@@ -1522,7 +1522,7 @@
         <v>2.08</v>
       </c>
       <c r="U8" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V8" t="n">
         <v>2.84</v>
@@ -1537,7 +1537,7 @@
         <v>7.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA8" t="n">
         <v>14</v>
@@ -1552,37 +1552,37 @@
         <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG8" t="n">
         <v>32</v>
       </c>
       <c r="AH8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ8" t="n">
         <v>300</v>
       </c>
       <c r="AK8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AL8" t="n">
         <v>140</v>
       </c>
       <c r="AM8" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AN8" t="n">
         <v>230</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1636,7 +1636,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>1.7</v>
+        <v>2.54</v>
       </c>
       <c r="O9" t="n">
         <v>1.42</v>
@@ -1645,7 +1645,7 @@
         <v>1.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.42</v>
+        <v>1.84</v>
       </c>
       <c r="R9" t="n">
         <v>1.22</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1777,10 +1777,10 @@
         <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
         <v>1.35</v>
@@ -1846,7 +1846,7 @@
         <v>46</v>
       </c>
       <c r="AM10" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="n">
         <v>30</v>
@@ -1909,7 +1909,7 @@
         <v>3.85</v>
       </c>
       <c r="O11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
         <v>1.98</v>
@@ -2026,7 +2026,7 @@
         <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
@@ -2107,7 +2107,7 @@
         <v>150</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK12" t="n">
         <v>38</v>
@@ -2173,10 +2173,10 @@
         <v>1.46</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="n">
         <v>1.39</v>
@@ -2185,19 +2185,19 @@
         <v>1.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
         <v>1.22</v>
@@ -2209,22 +2209,22 @@
         <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
         <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AC13" t="n">
         <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
         <v>80</v>
@@ -2233,10 +2233,10 @@
         <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
         <v>90</v>
@@ -2248,16 +2248,16 @@
         <v>22</v>
       </c>
       <c r="AL13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM13" t="n">
         <v>170</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -679,7 +679,7 @@
         <v>4.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>4.2</v>
@@ -700,16 +700,16 @@
         <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R2" t="n">
         <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U2" t="n">
         <v>2.28</v>
@@ -718,13 +718,13 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X2" t="n">
         <v>18</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
         <v>36</v>
@@ -772,7 +772,7 @@
         <v>10.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="G3" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="H3" t="n">
         <v>1.34</v>
       </c>
       <c r="I3" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="J3" t="n">
         <v>3.7</v>
@@ -826,7 +826,7 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>2.32</v>
+        <v>3.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -838,22 +838,22 @@
         <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
         <v>2.44</v>
       </c>
       <c r="T3" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="W3" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X3" t="n">
         <v>990</v>
@@ -961,7 +961,7 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O4" t="n">
         <v>1.27</v>
@@ -1210,7 +1210,7 @@
         <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="H6" t="n">
         <v>3.15</v>
@@ -1258,7 +1258,7 @@
         <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1348,10 +1348,10 @@
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I7" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="J7" t="n">
         <v>4.7</v>
@@ -1507,7 +1507,7 @@
         <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
         <v>1.98</v>
@@ -1519,7 +1519,7 @@
         <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U8" t="n">
         <v>1.79</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G10" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H10" t="n">
         <v>2.66</v>
@@ -1798,7 +1798,7 @@
         <v>1.58</v>
       </c>
       <c r="W10" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
@@ -1909,7 +1909,7 @@
         <v>3.85</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P11" t="n">
         <v>1.98</v>
@@ -2020,7 +2020,7 @@
         <v>2.24</v>
       </c>
       <c r="G12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H12" t="n">
         <v>4.4</v>
@@ -2041,7 +2041,7 @@
         <v>1.17</v>
       </c>
       <c r="N12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O12" t="n">
         <v>1.75</v>
@@ -2071,7 +2071,7 @@
         <v>1.79</v>
       </c>
       <c r="X12" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Y12" t="n">
         <v>9.6</v>
@@ -2083,7 +2083,7 @@
         <v>140</v>
       </c>
       <c r="AB12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
@@ -2092,13 +2092,13 @@
         <v>22</v>
       </c>
       <c r="AE12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="n">
         <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>34</v>
@@ -2122,7 +2122,7 @@
         <v>42</v>
       </c>
       <c r="AO12" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="G13" t="n">
         <v>1.91</v>
@@ -2161,7 +2161,7 @@
         <v>4.9</v>
       </c>
       <c r="I13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
@@ -2224,10 +2224,10 @@
         <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
         <v>11</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -685,7 +685,7 @@
         <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -700,13 +700,13 @@
         <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R2" t="n">
         <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T2" t="n">
         <v>1.73</v>
@@ -721,7 +721,7 @@
         <v>2.14</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
         <v>20</v>
@@ -802,91 +802,91 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="G3" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="H3" t="n">
-        <v>1.34</v>
+        <v>1.82</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="S3" t="n">
-        <v>2.44</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="X3" t="n">
-        <v>990</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB3" t="n">
-        <v>990</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>990</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="4">
@@ -961,19 +961,19 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
         <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.54</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
         <v>2.9</v>
@@ -985,7 +985,7 @@
         <v>1.86</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
         <v>2.46</v>
@@ -1021,7 +1021,7 @@
         <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1111,7 +1111,7 @@
         <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>7.6</v>
+        <v>1.05</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1210,13 +1210,13 @@
         <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
         <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
@@ -1237,16 +1237,16 @@
         <v>1.06</v>
       </c>
       <c r="P6" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q6" t="n">
         <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1258,7 +1258,7 @@
         <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1555,13 +1555,13 @@
         <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG8" t="n">
         <v>32</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
         <v>44</v>
@@ -1633,10 +1633,10 @@
         <v>1.47</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.54</v>
+        <v>3.05</v>
       </c>
       <c r="O9" t="n">
         <v>1.42</v>
@@ -1645,76 +1645,76 @@
         <v>1.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84</v>
+        <v>2.22</v>
       </c>
       <c r="R9" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S9" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="U9" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="V9" t="n">
         <v>1.15</v>
       </c>
       <c r="W9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="Z9" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>38</v>
+        <v>990</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="G10" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H10" t="n">
         <v>2.66</v>
@@ -1765,7 +1765,7 @@
         <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -1798,7 +1798,7 @@
         <v>1.58</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
@@ -2020,7 +2020,7 @@
         <v>2.24</v>
       </c>
       <c r="G12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H12" t="n">
         <v>4.4</v>
@@ -2041,10 +2041,10 @@
         <v>1.17</v>
       </c>
       <c r="N12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="O12" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="P12" t="n">
         <v>1.4</v>
@@ -2068,7 +2068,7 @@
         <v>1.28</v>
       </c>
       <c r="W12" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X12" t="n">
         <v>6.4</v>
@@ -2107,7 +2107,7 @@
         <v>150</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="n">
         <v>38</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="G13" t="n">
         <v>1.91</v>
@@ -2161,7 +2161,7 @@
         <v>4.9</v>
       </c>
       <c r="I13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
@@ -2200,7 +2200,7 @@
         <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W13" t="n">
         <v>2.08</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -697,7 +697,7 @@
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q2" t="n">
         <v>1.76</v>
@@ -721,7 +721,7 @@
         <v>2.14</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
         <v>20</v>
@@ -772,7 +772,7 @@
         <v>10.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -811,13 +811,13 @@
         <v>1.82</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="J3" t="n">
         <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -847,7 +847,7 @@
         <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
         <v>2</v>
@@ -946,7 +946,7 @@
         <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -958,88 +958,88 @@
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q4" t="n">
         <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="U4" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
         <v>2.46</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>990</v>
       </c>
       <c r="Y4" t="n">
-        <v>28</v>
+        <v>990</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AC4" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.94</v>
       </c>
       <c r="H6" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
         <v>3.95</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.4</v>
@@ -1231,16 +1231,16 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O6" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
         <v>1.56</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R6" t="n">
         <v>1.19</v>
@@ -1258,7 +1258,7 @@
         <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1345,19 +1345,19 @@
         <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H7" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="I7" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J7" t="n">
         <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,19 +1366,19 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
         <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R7" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
         <v>2.18</v>
@@ -1387,13 +1387,13 @@
         <v>1.6</v>
       </c>
       <c r="U7" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V7" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="W7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X7" t="n">
         <v>990</v>
@@ -1432,7 +1432,7 @@
         <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK7" t="n">
         <v>60</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="G8" t="n">
         <v>8.6</v>
@@ -1495,34 +1495,34 @@
         <v>4.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="S8" t="n">
         <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V8" t="n">
         <v>2.84</v>
@@ -1543,16 +1543,16 @@
         <v>14</v>
       </c>
       <c r="AB8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC8" t="n">
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>70</v>
@@ -1561,13 +1561,13 @@
         <v>32</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
         <v>44</v>
       </c>
       <c r="AJ8" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AK8" t="n">
         <v>150</v>
@@ -1576,13 +1576,13 @@
         <v>140</v>
       </c>
       <c r="AM8" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN8" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="G9" t="n">
         <v>1.73</v>
@@ -1621,10 +1621,10 @@
         <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>4.1</v>
@@ -1642,31 +1642,31 @@
         <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
         <v>1.26</v>
       </c>
       <c r="S9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="U9" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V9" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
         <v>990</v>
@@ -1675,7 +1675,7 @@
         <v>60</v>
       </c>
       <c r="AA9" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AB9" t="n">
         <v>6.8</v>
@@ -1687,10 +1687,10 @@
         <v>990</v>
       </c>
       <c r="AE9" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
@@ -1699,7 +1699,7 @@
         <v>990</v>
       </c>
       <c r="AI9" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ9" t="n">
         <v>17</v>
@@ -1711,7 +1711,7 @@
         <v>50</v>
       </c>
       <c r="AM9" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AN9" t="n">
         <v>14</v>
@@ -1765,31 +1765,31 @@
         <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
         <v>3.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U10" t="n">
         <v>2.18</v>
@@ -1816,7 +1816,7 @@
         <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
         <v>12</v>
@@ -1843,10 +1843,10 @@
         <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN10" t="n">
         <v>30</v>
@@ -2092,7 +2092,7 @@
         <v>22</v>
       </c>
       <c r="AE12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF12" t="n">
         <v>11</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="G13" t="n">
         <v>1.91</v>
@@ -2194,13 +2194,13 @@
         <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U13" t="n">
         <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W13" t="n">
         <v>2.08</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G2" t="n">
         <v>1.86</v>
@@ -679,7 +679,7 @@
         <v>4.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
         <v>4.2</v>
@@ -697,7 +697,7 @@
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q2" t="n">
         <v>1.76</v>
@@ -706,10 +706,10 @@
         <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
         <v>2.28</v>
@@ -718,10 +718,10 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
         <v>20</v>
@@ -730,7 +730,7 @@
         <v>36</v>
       </c>
       <c r="AA2" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="n">
         <v>11</v>
@@ -739,7 +739,7 @@
         <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
         <v>55</v>
@@ -760,7 +760,7 @@
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL2" t="n">
         <v>30</v>
@@ -769,10 +769,10 @@
         <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G4" t="n">
         <v>1.68</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I4" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K4" t="n">
         <v>4.6</v>
@@ -961,28 +961,28 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S4" t="n">
         <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
         <v>1.17</v>
@@ -991,7 +991,7 @@
         <v>2.46</v>
       </c>
       <c r="X4" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
         <v>990</v>
@@ -1003,10 +1003,10 @@
         <v>190</v>
       </c>
       <c r="AB4" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
         <v>990</v>
@@ -1036,7 +1036,7 @@
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
         <v>10.5</v>
@@ -1078,13 +1078,13 @@
         <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
         <v>1000</v>
@@ -1105,13 +1105,13 @@
         <v>1.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="R5" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>1.05</v>
+        <v>1.79</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>2.94</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.4</v>
@@ -1255,10 +1255,10 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W6" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="G7" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="I7" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K7" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,31 +1366,31 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S7" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="T7" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="U7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V7" t="n">
         <v>2.38</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.48</v>
       </c>
       <c r="W7" t="n">
         <v>1.21</v>
@@ -1399,10 +1399,10 @@
         <v>990</v>
       </c>
       <c r="Y7" t="n">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA7" t="n">
         <v>980</v>
@@ -1411,37 +1411,37 @@
         <v>990</v>
       </c>
       <c r="AC7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF7" t="n">
         <v>980</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>60</v>
       </c>
       <c r="AG7" t="n">
         <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL7" t="n">
         <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>7.4</v>
       </c>
       <c r="G8" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>1.52</v>
@@ -1492,25 +1492,25 @@
         <v>4.4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O8" t="n">
         <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R8" t="n">
         <v>1.35</v>
@@ -1519,10 +1519,10 @@
         <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V8" t="n">
         <v>2.84</v>
@@ -1534,7 +1534,7 @@
         <v>15.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z8" t="n">
         <v>8.199999999999999</v>
@@ -1543,10 +1543,10 @@
         <v>14</v>
       </c>
       <c r="AB8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
         <v>9.800000000000001</v>
@@ -1561,7 +1561,7 @@
         <v>32</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
         <v>44</v>
@@ -1570,10 +1570,10 @@
         <v>290</v>
       </c>
       <c r="AK8" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AL8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="n">
         <v>180</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="G9" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H9" t="n">
         <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.6</v>
@@ -1642,31 +1642,31 @@
         <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="R9" t="n">
         <v>1.26</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T9" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="U9" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V9" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y9" t="n">
         <v>990</v>
@@ -1768,13 +1768,13 @@
         <v>1.42</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P10" t="n">
         <v>1.94</v>
@@ -1789,10 +1789,10 @@
         <v>3.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
         <v>1.58</v>
@@ -1822,10 +1822,10 @@
         <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG10" t="n">
         <v>12.5</v>
@@ -1840,7 +1840,7 @@
         <v>46</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="n">
         <v>44</v>
@@ -1909,7 +1909,7 @@
         <v>3.85</v>
       </c>
       <c r="O11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
         <v>1.98</v>
@@ -2038,7 +2038,7 @@
         <v>1.72</v>
       </c>
       <c r="M12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N12" t="n">
         <v>2.26</v>
@@ -2107,7 +2107,7 @@
         <v>150</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK12" t="n">
         <v>38</v>
@@ -2116,13 +2116,13 @@
         <v>95</v>
       </c>
       <c r="AM12" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AN12" t="n">
         <v>42</v>
       </c>
       <c r="AO12" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13">
@@ -2161,10 +2161,10 @@
         <v>4.9</v>
       </c>
       <c r="I13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
         <v>3.65</v>
@@ -2194,13 +2194,13 @@
         <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W13" t="n">
         <v>2.08</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -670,7 +670,7 @@
         <v>1.83</v>
       </c>
       <c r="G2" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
@@ -709,7 +709,7 @@
         <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U2" t="n">
         <v>2.28</v>
@@ -721,7 +721,7 @@
         <v>2.16</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
         <v>20</v>
@@ -772,7 +772,7 @@
         <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="G3" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="I3" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,7 +826,7 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O3" t="n">
         <v>1.23</v>
@@ -835,28 +835,28 @@
         <v>2.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
         <v>1.46</v>
       </c>
       <c r="S3" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T3" t="n">
         <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="W3" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -865,19 +865,19 @@
         <v>14.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC3" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="G4" t="n">
         <v>1.68</v>
@@ -952,7 +952,7 @@
         <v>3.95</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,28 +961,28 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="V4" t="n">
         <v>1.17</v>
@@ -991,7 +991,7 @@
         <v>2.46</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
         <v>990</v>
@@ -1030,7 +1030,7 @@
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1078,13 +1078,13 @@
         <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
         <v>1000</v>
@@ -1105,13 +1105,13 @@
         <v>1.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
         <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1234,7 +1234,7 @@
         <v>2.42</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P6" t="n">
         <v>1.56</v>
@@ -1258,7 +1258,7 @@
         <v>1.32</v>
       </c>
       <c r="W6" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="G7" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="H7" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,37 +1366,37 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="R7" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
         <v>1.55</v>
       </c>
       <c r="U7" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V7" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="W7" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="X7" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
@@ -1405,7 +1405,7 @@
         <v>14.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>990</v>
@@ -1417,7 +1417,7 @@
         <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
         <v>980</v>
@@ -1426,28 +1426,28 @@
         <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AI7" t="n">
         <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AK7" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>70</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="8">
@@ -1477,79 +1477,79 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.52</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.54</v>
-      </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
         <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
         <v>1.35</v>
       </c>
       <c r="S8" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="U8" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="V8" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="W8" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z8" t="n">
         <v>7.8</v>
       </c>
-      <c r="Z8" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AA8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1561,28 +1561,28 @@
         <v>32</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AJ8" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AK8" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AL8" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AM8" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN8" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="G9" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H9" t="n">
         <v>6.6</v>
@@ -1624,73 +1624,73 @@
         <v>7.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
         <v>1.47</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="O9" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="P9" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="R9" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="V9" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
         <v>990</v>
       </c>
       <c r="Z9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
         <v>990</v>
       </c>
       <c r="AE9" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
@@ -1699,22 +1699,22 @@
         <v>990</v>
       </c>
       <c r="AI9" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
         <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G11" t="n">
         <v>7</v>
       </c>
-      <c r="G11" t="n">
-        <v>7.2</v>
-      </c>
       <c r="H11" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="I11" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
         <v>4.4</v>
@@ -1930,7 +1930,7 @@
         <v>1.87</v>
       </c>
       <c r="V11" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="W11" t="n">
         <v>1.16</v>
@@ -1945,7 +1945,7 @@
         <v>8.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB11" t="n">
         <v>21</v>
@@ -1987,7 +1987,7 @@
         <v>160</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="12">
@@ -2020,13 +2020,13 @@
         <v>2.24</v>
       </c>
       <c r="G12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H12" t="n">
         <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
@@ -2038,7 +2038,7 @@
         <v>1.72</v>
       </c>
       <c r="M12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N12" t="n">
         <v>2.26</v>
@@ -2050,13 +2050,13 @@
         <v>1.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="R12" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S12" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="T12" t="n">
         <v>2.62</v>
@@ -2068,7 +2068,7 @@
         <v>1.28</v>
       </c>
       <c r="W12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X12" t="n">
         <v>6.4</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.88</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.91</v>
-      </c>
       <c r="H13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
         <v>1.46</v>
@@ -2176,34 +2176,34 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
         <v>1.39</v>
       </c>
       <c r="P13" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q13" t="n">
         <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U13" t="n">
         <v>1.9</v>
       </c>
       <c r="V13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W13" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X13" t="n">
         <v>13</v>
@@ -2215,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AB13" t="n">
         <v>7.6</v>
@@ -2227,10 +2227,10 @@
         <v>21</v>
       </c>
       <c r="AE13" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
@@ -2242,19 +2242,19 @@
         <v>90</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
         <v>42</v>
       </c>
       <c r="AM13" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
         <v>100</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -670,7 +670,7 @@
         <v>1.83</v>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
@@ -697,7 +697,7 @@
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q2" t="n">
         <v>1.76</v>
@@ -709,7 +709,7 @@
         <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
         <v>2.28</v>
@@ -718,7 +718,7 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X2" t="n">
         <v>19.5</v>
@@ -736,7 +736,7 @@
         <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>18</v>
@@ -748,7 +748,7 @@
         <v>12.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH2" t="n">
         <v>17.5</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="I3" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
@@ -826,52 +826,52 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="T3" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W3" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
         <v>14.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB3" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
         <v>11.5</v>
@@ -886,7 +886,7 @@
         <v>17.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.63</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.68</v>
-      </c>
       <c r="H4" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,37 +961,37 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="U4" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>990</v>
       </c>
       <c r="Y4" t="n">
         <v>990</v>
@@ -1000,13 +1000,13 @@
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
         <v>990</v>
@@ -1027,19 +1027,19 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,16 +1075,16 @@
         <v>2.82</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="H5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
         <v>1.09</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.01</v>
       </c>
       <c r="K5" t="n">
         <v>1000</v>
@@ -1120,7 +1120,7 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W5" t="n">
         <v>1.01</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="G7" t="n">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="I7" t="n">
-        <v>1.84</v>
+        <v>1.63</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,46 +1366,46 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U7" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="V7" t="n">
-        <v>2.18</v>
+        <v>2.56</v>
       </c>
       <c r="W7" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="X7" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
         <v>990</v>
@@ -1417,22 +1417,22 @@
         <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AF7" t="n">
         <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AK7" t="n">
         <v>980</v>
@@ -1444,10 +1444,10 @@
         <v>70</v>
       </c>
       <c r="AN7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="8">
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="I8" t="n">
         <v>1.52</v>
@@ -1498,13 +1498,13 @@
         <v>1.42</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
         <v>3.75</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
         <v>1.94</v>
@@ -1516,19 +1516,19 @@
         <v>1.35</v>
       </c>
       <c r="S8" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="U8" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V8" t="n">
         <v>2.92</v>
       </c>
       <c r="W8" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X8" t="n">
         <v>14.5</v>
@@ -1573,13 +1573,13 @@
         <v>160</v>
       </c>
       <c r="AL8" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AM8" t="n">
         <v>190</v>
       </c>
       <c r="AN8" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AO8" t="n">
         <v>9</v>
@@ -1618,7 +1618,7 @@
         <v>1.73</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I9" t="n">
         <v>7.4</v>
@@ -1750,10 +1750,10 @@
         <v>2.9</v>
       </c>
       <c r="G10" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H10" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I10" t="n">
         <v>2.72</v>
@@ -1771,7 +1771,7 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O10" t="n">
         <v>1.34</v>
@@ -1888,7 +1888,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="I11" t="n">
         <v>1.6</v>
@@ -1921,7 +1921,7 @@
         <v>1.37</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T11" t="n">
         <v>2.06</v>
@@ -1951,7 +1951,7 @@
         <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
         <v>9.6</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="G12" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
@@ -2050,7 +2050,7 @@
         <v>1.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="R12" t="n">
         <v>1.13</v>
@@ -2065,10 +2065,10 @@
         <v>1.58</v>
       </c>
       <c r="V12" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X12" t="n">
         <v>6.4</v>
@@ -2095,7 +2095,7 @@
         <v>100</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
@@ -2116,13 +2116,13 @@
         <v>95</v>
       </c>
       <c r="AM12" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="AN12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO12" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="G13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
@@ -2176,7 +2176,7 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="n">
         <v>1.39</v>
@@ -2185,73 +2185,73 @@
         <v>1.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U13" t="n">
         <v>1.9</v>
       </c>
       <c r="V13" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
         <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
         <v>10.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
         <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
         <v>21</v>
       </c>
       <c r="AL13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
         <v>15</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.83</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.84</v>
-      </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I2" t="n">
         <v>4.7</v>
@@ -709,7 +709,7 @@
         <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
         <v>2.28</v>
@@ -718,7 +718,7 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X2" t="n">
         <v>19.5</v>
@@ -733,7 +733,7 @@
         <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
         <v>9</v>
@@ -757,7 +757,7 @@
         <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK2" t="n">
         <v>17.5</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G3" t="n">
         <v>4.5</v>
@@ -811,10 +811,10 @@
         <v>1.91</v>
       </c>
       <c r="I3" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
@@ -832,7 +832,7 @@
         <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q3" t="n">
         <v>1.7</v>
@@ -841,16 +841,16 @@
         <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
         <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V3" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="W3" t="n">
         <v>1.29</v>
@@ -889,22 +889,22 @@
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO3" t="n">
         <v>11.5</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="G4" t="n">
         <v>1.63</v>
       </c>
       <c r="H4" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,37 +961,37 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
         <v>3.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W4" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="X4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>990</v>
@@ -1000,10 +1000,10 @@
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC4" t="n">
         <v>10.5</v>
@@ -1015,7 +1015,7 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
@@ -1027,19 +1027,19 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1078,7 +1078,7 @@
         <v>290</v>
       </c>
       <c r="H5" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="I5" t="n">
         <v>12</v>
@@ -1102,7 +1102,7 @@
         <v>1.09</v>
       </c>
       <c r="P5" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
         <v>1.01</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>5.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="I7" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="J7" t="n">
         <v>4.7</v>
@@ -1366,19 +1366,19 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="R7" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S7" t="n">
         <v>2.1</v>
@@ -1390,7 +1390,7 @@
         <v>2.42</v>
       </c>
       <c r="V7" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="W7" t="n">
         <v>1.21</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="G8" t="n">
         <v>8.6</v>
@@ -1498,16 +1498,16 @@
         <v>1.42</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
         <v>3.75</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
         <v>2.02</v>
@@ -1519,10 +1519,10 @@
         <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V8" t="n">
         <v>2.92</v>
@@ -1573,10 +1573,10 @@
         <v>160</v>
       </c>
       <c r="AL8" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AM8" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN8" t="n">
         <v>220</v>
@@ -1621,7 +1621,7 @@
         <v>6.4</v>
       </c>
       <c r="I9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J9" t="n">
         <v>3.65</v>
@@ -1702,7 +1702,7 @@
         <v>170</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
         <v>980</v>
@@ -1771,7 +1771,7 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
         <v>1.34</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H11" t="n">
         <v>1.58</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="J11" t="n">
         <v>4.4</v>
@@ -1909,7 +1909,7 @@
         <v>3.85</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P11" t="n">
         <v>1.98</v>
@@ -1921,7 +1921,7 @@
         <v>1.37</v>
       </c>
       <c r="S11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T11" t="n">
         <v>2.06</v>
@@ -1930,7 +1930,7 @@
         <v>1.87</v>
       </c>
       <c r="V11" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="W11" t="n">
         <v>1.16</v>
@@ -1954,7 +1954,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
         <v>2.22</v>
@@ -2044,7 +2044,7 @@
         <v>2.26</v>
       </c>
       <c r="O12" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="P12" t="n">
         <v>1.4</v>
@@ -2083,7 +2083,7 @@
         <v>140</v>
       </c>
       <c r="AB12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
@@ -2182,10 +2182,10 @@
         <v>1.39</v>
       </c>
       <c r="P13" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R13" t="n">
         <v>1.29</v>
@@ -2194,10 +2194,10 @@
         <v>3.95</v>
       </c>
       <c r="T13" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.96</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.9</v>
       </c>
       <c r="V13" t="n">
         <v>1.24</v>
@@ -2239,19 +2239,19 @@
         <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ13" t="n">
         <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="n">
         <v>44</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
         <v>15</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H2" t="n">
         <v>4.6</v>
@@ -679,10 +679,10 @@
         <v>4.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
         <v>1.34</v>
@@ -700,10 +700,10 @@
         <v>2.22</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>2.88</v>
@@ -718,19 +718,19 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y2" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>20</v>
       </c>
       <c r="Z2" t="n">
         <v>36</v>
       </c>
       <c r="AA2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB2" t="n">
         <v>10.5</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G3" t="n">
         <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I3" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>3.75</v>
@@ -820,7 +820,7 @@
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -835,7 +835,7 @@
         <v>2.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
         <v>1.47</v>
@@ -850,7 +850,7 @@
         <v>2.26</v>
       </c>
       <c r="V3" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>1.29</v>
@@ -892,7 +892,7 @@
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
         <v>48</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G4" t="n">
         <v>1.63</v>
@@ -946,7 +946,7 @@
         <v>6.4</v>
       </c>
       <c r="I4" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J4" t="n">
         <v>4.2</v>
@@ -955,7 +955,7 @@
         <v>4.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -970,7 +970,7 @@
         <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
         <v>1.36</v>
@@ -985,13 +985,13 @@
         <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
         <v>2.58</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y4" t="n">
         <v>990</v>
@@ -1006,7 +1006,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
         <v>990</v>
@@ -1015,7 +1015,7 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="G5" t="n">
-        <v>290</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.16</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>3.95</v>
       </c>
       <c r="J5" t="n">
-        <v>1.09</v>
+        <v>2.8</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>1.1</v>
+        <v>2.26</v>
       </c>
       <c r="O5" t="n">
-        <v>1.09</v>
+        <v>1.64</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="R5" t="n">
         <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>1.05</v>
+        <v>6.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="V5" t="n">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB5" t="n">
-        <v>990</v>
+        <v>7</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>990</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="n">
-        <v>990</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
@@ -1210,7 +1210,7 @@
         <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H6" t="n">
         <v>3.15</v>
@@ -1231,22 +1231,22 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="O6" t="n">
         <v>1.06</v>
       </c>
       <c r="P6" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="R6" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1345,7 +1345,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H7" t="n">
         <v>1.57</v>
@@ -1357,7 +1357,7 @@
         <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,46 +1366,46 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R7" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="S7" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="T7" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U7" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="V7" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="W7" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X7" t="n">
         <v>990</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="n">
         <v>14</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
         <v>990</v>
@@ -1414,7 +1414,7 @@
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>16</v>
@@ -1423,10 +1423,10 @@
         <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>980</v>
@@ -1483,7 +1483,7 @@
         <v>8.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I8" t="n">
         <v>1.52</v>
@@ -1501,7 +1501,7 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O8" t="n">
         <v>1.34</v>
@@ -1513,13 +1513,13 @@
         <v>2.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T8" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U8" t="n">
         <v>1.77</v>
@@ -1531,7 +1531,7 @@
         <v>1.13</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
         <v>7.4</v>
@@ -1564,7 +1564,7 @@
         <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="n">
         <v>320</v>
@@ -1621,7 +1621,7 @@
         <v>6.4</v>
       </c>
       <c r="I9" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.65</v>
@@ -1669,7 +1669,7 @@
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="Z9" t="n">
         <v>55</v>
@@ -1711,7 +1711,7 @@
         <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="G10" t="n">
-        <v>2.94</v>
+        <v>2.78</v>
       </c>
       <c r="H10" t="n">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="I10" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="J10" t="n">
         <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
         <v>1.42</v>
@@ -1777,7 +1777,7 @@
         <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
         <v>2</v>
@@ -1792,67 +1792,67 @@
         <v>1.79</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V10" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="W10" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
       </c>
       <c r="Y10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB10" t="n">
         <v>11</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>12</v>
       </c>
       <c r="AC10" t="n">
         <v>7.6</v>
       </c>
       <c r="AD10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG10" t="n">
         <v>12</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK10" t="n">
         <v>29</v>
       </c>
-      <c r="AF10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI10" t="n">
+      <c r="AL10" t="n">
         <v>42</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>44</v>
       </c>
       <c r="AM10" t="n">
         <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="G11" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="J11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.4</v>
       </c>
-      <c r="K11" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
         <v>1.98</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T11" t="n">
         <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="W11" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X11" t="n">
         <v>15</v>
@@ -1942,7 +1942,7 @@
         <v>7.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA11" t="n">
         <v>14.5</v>
@@ -1954,7 +1954,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -1966,13 +1966,13 @@
         <v>26</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AK11" t="n">
         <v>110</v>
@@ -1984,7 +1984,7 @@
         <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AO11" t="n">
         <v>9.4</v>
@@ -2071,7 +2071,7 @@
         <v>1.81</v>
       </c>
       <c r="X12" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Y12" t="n">
         <v>9.6</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="G13" t="n">
         <v>1.9</v>
@@ -2161,7 +2161,7 @@
         <v>4.9</v>
       </c>
       <c r="I13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
@@ -2188,10 +2188,10 @@
         <v>2.14</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
         <v>1.97</v>
@@ -2200,7 +2200,7 @@
         <v>1.96</v>
       </c>
       <c r="V13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W13" t="n">
         <v>2.1</v>
@@ -2227,7 +2227,7 @@
         <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="n">
         <v>10.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -676,13 +676,13 @@
         <v>4.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.3</v>
       </c>
       <c r="L2" t="n">
         <v>1.34</v>
@@ -691,28 +691,28 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
         <v>1.27</v>
@@ -724,7 +724,7 @@
         <v>19</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
         <v>36</v>
@@ -769,7 +769,7 @@
         <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO2" t="n">
         <v>48</v>
@@ -805,7 +805,7 @@
         <v>3.9</v>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
         <v>1.92</v>
@@ -820,7 +820,7 @@
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -835,7 +835,7 @@
         <v>2.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
         <v>1.47</v>
@@ -844,7 +844,7 @@
         <v>2.74</v>
       </c>
       <c r="T3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U3" t="n">
         <v>2.26</v>
@@ -853,13 +853,13 @@
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X3" t="n">
         <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
         <v>14.5</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="G4" t="n">
         <v>1.63</v>
       </c>
       <c r="H4" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I4" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -964,43 +964,43 @@
         <v>3.75</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S4" t="n">
         <v>3.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U4" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
         <v>2.58</v>
       </c>
       <c r="X4" t="n">
-        <v>990</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AB4" t="n">
         <v>8.199999999999999</v>
@@ -1015,19 +1015,19 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>990</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>18</v>
@@ -1036,10 +1036,10 @@
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K5" t="n">
         <v>3.1</v>
@@ -1105,58 +1105,58 @@
         <v>1.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="R5" t="n">
         <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U5" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V5" t="n">
         <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X5" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB5" t="n">
         <v>7</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD5" t="n">
         <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
         <v>14</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI5" t="n">
         <v>180</v>
@@ -1165,16 +1165,16 @@
         <v>44</v>
       </c>
       <c r="AK5" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AL5" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AM5" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO5" t="n">
         <v>120</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="H6" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
         <v>1.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="O6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P6" t="n">
         <v>1.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
         <v>3.85</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="W6" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1348,10 +1348,10 @@
         <v>5.9</v>
       </c>
       <c r="H7" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="I7" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="J7" t="n">
         <v>4.7</v>
@@ -1366,28 +1366,28 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
         <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q7" t="n">
         <v>1.48</v>
       </c>
       <c r="R7" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S7" t="n">
         <v>2.18</v>
       </c>
       <c r="T7" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U7" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V7" t="n">
         <v>2.48</v>
@@ -1402,7 +1402,7 @@
         <v>14</v>
       </c>
       <c r="Z7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1426,7 +1426,7 @@
         <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>990</v>
       </c>
       <c r="AI7" t="n">
         <v>980</v>
@@ -1483,13 +1483,13 @@
         <v>8.6</v>
       </c>
       <c r="H8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.51</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.52</v>
-      </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K8" t="n">
         <v>4.7</v>
@@ -1501,28 +1501,28 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T8" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="U8" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="V8" t="n">
         <v>2.92</v>
@@ -1534,7 +1534,7 @@
         <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z8" t="n">
         <v>7.8</v>
@@ -1543,7 +1543,7 @@
         <v>13</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
         <v>10</v>
@@ -1552,7 +1552,7 @@
         <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF8" t="n">
         <v>70</v>
@@ -1573,16 +1573,16 @@
         <v>160</v>
       </c>
       <c r="AL8" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AM8" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN8" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AO8" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="9">
@@ -1627,7 +1627,7 @@
         <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
         <v>1.47</v>
@@ -1654,7 +1654,7 @@
         <v>4.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U9" t="n">
         <v>1.71</v>
@@ -1690,7 +1690,7 @@
         <v>160</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
@@ -1708,7 +1708,7 @@
         <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
         <v>240</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G10" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I10" t="n">
         <v>2.82</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.88</v>
-      </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
         <v>3.55</v>
@@ -1777,7 +1777,7 @@
         <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q10" t="n">
         <v>2</v>
@@ -1792,10 +1792,10 @@
         <v>1.79</v>
       </c>
       <c r="U10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W10" t="n">
         <v>1.56</v>
@@ -1807,7 +1807,7 @@
         <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA10" t="n">
         <v>44</v>
@@ -1840,7 +1840,7 @@
         <v>42</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL10" t="n">
         <v>42</v>
@@ -1849,7 +1849,7 @@
         <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
         <v>27</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.6</v>
       </c>
-      <c r="I11" t="n">
-        <v>1.61</v>
-      </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.38</v>
@@ -1912,10 +1912,10 @@
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R11" t="n">
         <v>1.36</v>
@@ -1927,19 +1927,19 @@
         <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V11" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="W11" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z11" t="n">
         <v>8.800000000000001</v>
@@ -1954,7 +1954,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -2041,13 +2041,13 @@
         <v>1.17</v>
       </c>
       <c r="N12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O12" t="n">
         <v>1.75</v>
       </c>
       <c r="P12" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q12" t="n">
         <v>3.3</v>
@@ -2056,7 +2056,7 @@
         <v>1.13</v>
       </c>
       <c r="S12" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="T12" t="n">
         <v>2.62</v>
@@ -2068,10 +2068,10 @@
         <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X12" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Y12" t="n">
         <v>9.6</v>
@@ -2083,7 +2083,7 @@
         <v>140</v>
       </c>
       <c r="AB12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H13" t="n">
         <v>4.9</v>
@@ -2164,10 +2164,10 @@
         <v>5.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.46</v>
@@ -2185,7 +2185,7 @@
         <v>1.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R13" t="n">
         <v>1.3</v>
@@ -2203,7 +2203,7 @@
         <v>1.23</v>
       </c>
       <c r="W13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
@@ -2215,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB13" t="n">
         <v>7.8</v>
@@ -2224,7 +2224,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
         <v>80</v>
@@ -2257,7 +2257,7 @@
         <v>15</v>
       </c>
       <c r="AO13" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:35:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Melbourne Victory</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.83</v>
+        <v>5.9</v>
       </c>
       <c r="G2" t="n">
-        <v>1.84</v>
+        <v>6.4</v>
       </c>
       <c r="H2" t="n">
-        <v>4.6</v>
+        <v>1.62</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>1.63</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="T2" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="V2" t="n">
-        <v>1.27</v>
+        <v>2.58</v>
       </c>
       <c r="W2" t="n">
-        <v>2.18</v>
+        <v>1.19</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>36</v>
+        <v>10.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>100</v>
+        <v>15.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF2" t="n">
         <v>55</v>
       </c>
-      <c r="AF2" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AG2" t="n">
-        <v>9.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.5</v>
+        <v>75</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>11:35:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.9</v>
+        <v>1.64</v>
       </c>
       <c r="G3" t="n">
-        <v>4.4</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>1.92</v>
+        <v>6.4</v>
       </c>
       <c r="I3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U3" t="n">
         <v>2</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.26</v>
-      </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>1.3</v>
+        <v>2.52</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD3" t="n">
         <v>24</v>
       </c>
-      <c r="AB3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC3" t="n">
+      <c r="AE3" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN3" t="n">
         <v>9.4</v>
       </c>
-      <c r="AD3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>42</v>
-      </c>
       <c r="AO3" t="n">
-        <v>11.5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,123 +923,123 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:35:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.62</v>
+        <v>2.66</v>
       </c>
       <c r="G4" t="n">
-        <v>1.63</v>
+        <v>2.82</v>
       </c>
       <c r="H4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X4" t="n">
         <v>6.6</v>
       </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X4" t="n">
-        <v>16.5</v>
-      </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>8.4</v>
       </c>
       <c r="Z4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD4" t="n">
         <v>1000</v>
       </c>
-      <c r="AA4" t="n">
-        <v>260</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>990</v>
-      </c>
       <c r="AE4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>1000</v>
       </c>
-      <c r="AF4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AK4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM4" t="n">
         <v>1000</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>180</v>
-      </c>
       <c r="AN4" t="n">
-        <v>9.4</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G5" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="J5" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="M5" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.26</v>
+        <v>3.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>1.42</v>
+        <v>1.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.96</v>
+        <v>2.22</v>
       </c>
       <c r="R5" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="T5" t="n">
-        <v>2.28</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>1.65</v>
+        <v>1.99</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="W5" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC5" t="n">
         <v>7.8</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AD5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF5" t="n">
         <v>22</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AG5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>330</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>85</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>44</v>
       </c>
       <c r="AK5" t="n">
         <v>46</v>
       </c>
       <c r="AL5" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>2.68</v>
+        <v>4.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>1.82</v>
       </c>
       <c r="I6" t="n">
-        <v>3.95</v>
+        <v>1.86</v>
       </c>
       <c r="J6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U6" t="n">
         <v>3</v>
       </c>
-      <c r="K6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.37</v>
+        <v>2.16</v>
       </c>
       <c r="W6" t="n">
-        <v>1.6</v>
+        <v>1.31</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>5.9</v>
+        <v>8.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K7" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>3.95</v>
       </c>
       <c r="O7" t="n">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>2.72</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.48</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>2.18</v>
+        <v>3.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.6</v>
+        <v>2.14</v>
       </c>
       <c r="U7" t="n">
-        <v>2.36</v>
+        <v>1.82</v>
       </c>
       <c r="V7" t="n">
-        <v>2.48</v>
+        <v>2.96</v>
       </c>
       <c r="W7" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="X7" t="n">
-        <v>990</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>7.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>990</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>16</v>
       </c>
       <c r="AF7" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="AH7" t="n">
-        <v>990</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AJ7" t="n">
+        <v>310</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL7" t="n">
         <v>140</v>
       </c>
-      <c r="AK7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>980</v>
-      </c>
       <c r="AM7" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AO7" t="n">
-        <v>5.9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H8" t="n">
         <v>7.8</v>
       </c>
-      <c r="G8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.5</v>
-      </c>
       <c r="I8" t="n">
-        <v>1.51</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="U8" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="V8" t="n">
-        <v>2.92</v>
+        <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>1.13</v>
+        <v>2.66</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.2</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>330</v>
       </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>6.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>17.5</v>
+        <v>170</v>
       </c>
       <c r="AF8" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>32</v>
       </c>
-      <c r="AH8" t="n">
-        <v>28</v>
-      </c>
       <c r="AI8" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>320</v>
+        <v>14.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AL8" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.66</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.73</v>
+        <v>2.74</v>
       </c>
       <c r="H9" t="n">
-        <v>6.4</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>7.4</v>
+        <v>2.94</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>2.96</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="S9" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="T9" t="n">
-        <v>2.22</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>1.71</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.16</v>
+        <v>1.51</v>
       </c>
       <c r="W9" t="n">
-        <v>2.36</v>
+        <v>1.58</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
-        <v>300</v>
+        <v>46</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>990</v>
+        <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>990</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM9" t="n">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.74</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>2.76</v>
+        <v>7.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.8</v>
+        <v>1.62</v>
       </c>
       <c r="I10" t="n">
-        <v>2.82</v>
+        <v>1.63</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.79</v>
+        <v>2.16</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>1.84</v>
       </c>
       <c r="V10" t="n">
-        <v>1.54</v>
+        <v>2.58</v>
       </c>
       <c r="W10" t="n">
-        <v>1.56</v>
+        <v>1.16</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>7.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.5</v>
+        <v>8</v>
       </c>
       <c r="AA10" t="n">
-        <v>44</v>
+        <v>14.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AF10" t="n">
-        <v>17.5</v>
+        <v>55</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
         <v>44</v>
       </c>
       <c r="AJ10" t="n">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="AK10" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AM10" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AN10" t="n">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="AO10" t="n">
-        <v>27</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.8</v>
+        <v>2.12</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>2.14</v>
       </c>
       <c r="H11" t="n">
-        <v>1.59</v>
+        <v>4.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.38</v>
+        <v>1.76</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="N11" t="n">
-        <v>3.8</v>
+        <v>2.22</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="P11" t="n">
-        <v>1.96</v>
+        <v>1.39</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.99</v>
+        <v>3.45</v>
       </c>
       <c r="R11" t="n">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="S11" t="n">
-        <v>3.55</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>2.7</v>
       </c>
       <c r="U11" t="n">
-        <v>1.89</v>
+        <v>1.56</v>
       </c>
       <c r="V11" t="n">
-        <v>2.66</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.16</v>
+        <v>1.87</v>
       </c>
       <c r="X11" t="n">
-        <v>14.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.800000000000001</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="n">
-        <v>14.5</v>
+        <v>150</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>5.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>9.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="AF11" t="n">
-        <v>55</v>
+        <v>10.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AI11" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>360</v>
+      </c>
+      <c r="AN11" t="n">
         <v>38</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>140</v>
-      </c>
       <c r="AO11" t="n">
-        <v>9.4</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,261 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>CD Nacional Funchal</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2.2</v>
       </c>
-      <c r="G12" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3.3</v>
-      </c>
       <c r="R12" t="n">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>7.6</v>
+        <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>2.62</v>
+        <v>1.99</v>
       </c>
       <c r="U12" t="n">
-        <v>1.58</v>
+        <v>1.96</v>
       </c>
       <c r="V12" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="X12" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM12" t="n">
         <v>140</v>
       </c>
-      <c r="AB12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>350</v>
-      </c>
       <c r="AN12" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-01-02</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>17:45:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Guimaraes</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>CD Nacional Funchal</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X13" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="G2" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.62</v>
+        <v>2.14</v>
       </c>
       <c r="I2" t="n">
-        <v>1.63</v>
+        <v>2.16</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="K2" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="S2" t="n">
+        <v>15</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y2" t="n">
         <v>4.7</v>
       </c>
-      <c r="L2" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="X2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>10.5</v>
-      </c>
       <c r="Z2" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.800000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>16.5</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>85</v>
       </c>
       <c r="AI2" t="n">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="AJ2" t="n">
+        <v>260</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>260</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>540</v>
+      </c>
+      <c r="AM2" t="n">
         <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>95</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="H3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I3" t="n">
         <v>6.4</v>
       </c>
-      <c r="I3" t="n">
-        <v>6.6</v>
-      </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S3" t="n">
         <v>4.3</v>
       </c>
-      <c r="L3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.25</v>
-      </c>
       <c r="T3" t="n">
-        <v>1.94</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.52</v>
+        <v>2.28</v>
       </c>
       <c r="X3" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="Z3" t="n">
         <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
         <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.66</v>
+        <v>2.98</v>
       </c>
       <c r="G4" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>2.72</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="M4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="P4" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="R4" t="n">
         <v>1.12</v>
       </c>
       <c r="S4" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>1.05</v>
+        <v>2.26</v>
       </c>
       <c r="U4" t="n">
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="W4" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="X4" t="n">
-        <v>6.6</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AA4" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.8</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF4" t="n">
         <v>1000</v>
       </c>
-      <c r="AE4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>15</v>
-      </c>
       <c r="AG4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -1072,91 +1072,91 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="G5" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P5" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
         <v>4.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U5" t="n">
         <v>1.99</v>
       </c>
       <c r="V5" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X5" t="n">
         <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AB5" t="n">
         <v>9.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD5" t="n">
         <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
         <v>330</v>
@@ -1171,13 +1171,13 @@
         <v>120</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AO5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G6" t="n">
         <v>4.3</v>
       </c>
       <c r="H6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I6" t="n">
         <v>1.82</v>
       </c>
-      <c r="I6" t="n">
-        <v>1.86</v>
-      </c>
       <c r="J6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.23</v>
@@ -1231,37 +1231,37 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O6" t="n">
         <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R6" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T6" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="U6" t="n">
         <v>3</v>
       </c>
       <c r="V6" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y6" t="n">
         <v>18.5</v>
@@ -1273,46 +1273,46 @@
         <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="AF6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG6" t="n">
         <v>18</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI6" t="n">
         <v>22</v>
       </c>
       <c r="AJ6" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AN6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="7">
@@ -1345,52 +1345,52 @@
         <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="I7" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="J7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K7" t="n">
         <v>4.6</v>
       </c>
-      <c r="K7" t="n">
-        <v>4.8</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.32</v>
       </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.37</v>
-      </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="U7" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="V7" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="W7" t="n">
         <v>1.13</v>
@@ -1399,37 +1399,37 @@
         <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
         <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG7" t="n">
         <v>32</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
         <v>310</v>
@@ -1441,13 +1441,13 @@
         <v>140</v>
       </c>
       <c r="AM7" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1495,67 +1495,67 @@
         <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R8" t="n">
         <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V8" t="n">
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA8" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AB8" t="n">
         <v>6.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE8" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG8" t="n">
         <v>10.5</v>
@@ -1564,22 +1564,22 @@
         <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ8" t="n">
         <v>14.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>270</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1615,7 +1615,7 @@
         <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H9" t="n">
         <v>2.9</v>
@@ -1642,10 +1642,10 @@
         <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
         <v>1.35</v>
@@ -1672,13 +1672,13 @@
         <v>11.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA9" t="n">
         <v>46</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
         <v>7.4</v>
@@ -1690,7 +1690,7 @@
         <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
@@ -1708,16 +1708,16 @@
         <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1753,10 +1753,10 @@
         <v>7.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="I10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
@@ -1765,34 +1765,34 @@
         <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
         <v>2.58</v>
@@ -1801,19 +1801,19 @@
         <v>1.16</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA10" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="n">
         <v>9</v>
@@ -1828,13 +1828,13 @@
         <v>55</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH10" t="n">
         <v>25</v>
       </c>
       <c r="AI10" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="n">
         <v>230</v>
@@ -1846,13 +1846,13 @@
         <v>120</v>
       </c>
       <c r="AM10" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN10" t="n">
         <v>180</v>
       </c>
       <c r="AO10" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="11">
@@ -1888,19 +1888,19 @@
         <v>2.14</v>
       </c>
       <c r="H11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.05</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.1</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="M11" t="n">
         <v>1.18</v>
@@ -1924,49 +1924,49 @@
         <v>8.199999999999999</v>
       </c>
       <c r="T11" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="U11" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W11" t="n">
         <v>1.87</v>
       </c>
       <c r="X11" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
         <v>36</v>
       </c>
       <c r="AA11" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB11" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AC11" t="n">
         <v>7.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE11" t="n">
         <v>120</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
         <v>170</v>
@@ -1981,7 +1981,7 @@
         <v>95</v>
       </c>
       <c r="AM11" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AN11" t="n">
         <v>38</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G12" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="H12" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I12" t="n">
         <v>4.7</v>
       </c>
-      <c r="I12" t="n">
-        <v>4.8</v>
-      </c>
       <c r="J12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.48</v>
@@ -2044,13 +2044,13 @@
         <v>3.35</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P12" t="n">
         <v>1.79</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R12" t="n">
         <v>1.29</v>
@@ -2059,16 +2059,16 @@
         <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U12" t="n">
         <v>1.96</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X12" t="n">
         <v>12</v>
@@ -2086,10 +2086,10 @@
         <v>7.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
         <v>70</v>
@@ -2107,10 +2107,10 @@
         <v>80</v>
       </c>
       <c r="AJ12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK12" t="n">
         <v>23</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>42</v>
@@ -2119,7 +2119,7 @@
         <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>85</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,117 +653,117 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="G2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>10</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="S2" t="n">
+        <v>42</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
         <v>5.6</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="S2" t="n">
-        <v>15</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="X2" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>10</v>
-      </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>17.5</v>
+        <v>44</v>
       </c>
       <c r="AE2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="AH2" t="n">
-        <v>85</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:35:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.71</v>
+        <v>2.44</v>
       </c>
       <c r="G3" t="n">
-        <v>1.72</v>
+        <v>2.52</v>
       </c>
       <c r="H3" t="n">
-        <v>6.2</v>
+        <v>3.55</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="L3" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
         <v>3.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R3" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="W3" t="n">
-        <v>2.28</v>
+        <v>1.67</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AE3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM3" t="n">
         <v>120</v>
       </c>
-      <c r="AF3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH3" t="n">
+      <c r="AN3" t="n">
         <v>25</v>
       </c>
-      <c r="AI3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>14</v>
-      </c>
       <c r="AO3" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.98</v>
+        <v>4.1</v>
       </c>
       <c r="G4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P4" t="n">
         <v>3.2</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
         <v>2.2</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.55</v>
-      </c>
       <c r="W4" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="X4" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC4" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AD4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH4" t="n">
         <v>16</v>
       </c>
-      <c r="AA4" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
+      <c r="AI4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK4" t="n">
         <v>42</v>
       </c>
-      <c r="AD4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>230</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
+      <c r="AL4" t="n">
         <v>34</v>
       </c>
-      <c r="AI4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>140</v>
-      </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AN4" t="n">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="AO4" t="n">
-        <v>85</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.36</v>
+        <v>7.8</v>
       </c>
       <c r="G5" t="n">
-        <v>2.48</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>1.54</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="O5" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="T5" t="n">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="V5" t="n">
-        <v>1.37</v>
+        <v>2.8</v>
       </c>
       <c r="W5" t="n">
-        <v>1.67</v>
+        <v>1.14</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA5" t="n">
         <v>13</v>
       </c>
-      <c r="Z5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>320</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>140</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN5" t="n">
         <v>250</v>
       </c>
-      <c r="AB5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>330</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>25</v>
-      </c>
       <c r="AO5" t="n">
-        <v>75</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K6" t="n">
         <v>4.1</v>
       </c>
-      <c r="G6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S6" t="n">
         <v>4.6</v>
       </c>
-      <c r="K6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.99</v>
-      </c>
       <c r="T6" t="n">
-        <v>1.46</v>
+        <v>2.4</v>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>1.69</v>
       </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.3</v>
+        <v>2.72</v>
       </c>
       <c r="X6" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.5</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>330</v>
       </c>
       <c r="AB6" t="n">
-        <v>30</v>
+        <v>6.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>29</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>14</v>
       </c>
-      <c r="AE6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>130</v>
-      </c>
       <c r="AK6" t="n">
-        <v>42</v>
+        <v>19.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.9</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>2.66</v>
       </c>
       <c r="G7" t="n">
-        <v>8.199999999999999</v>
+        <v>2.68</v>
       </c>
       <c r="H7" t="n">
-        <v>1.52</v>
+        <v>2.98</v>
       </c>
       <c r="I7" t="n">
-        <v>1.53</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="T7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.22</v>
       </c>
-      <c r="U7" t="n">
-        <v>1.77</v>
-      </c>
       <c r="V7" t="n">
-        <v>2.88</v>
+        <v>1.49</v>
       </c>
       <c r="W7" t="n">
-        <v>1.13</v>
+        <v>1.59</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.8</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF7" t="n">
         <v>17</v>
       </c>
-      <c r="AF7" t="n">
-        <v>70</v>
-      </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK7" t="n">
         <v>29</v>
       </c>
-      <c r="AI7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>310</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>150</v>
-      </c>
       <c r="AL7" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AN7" t="n">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.800000000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.58</v>
+        <v>6.6</v>
       </c>
       <c r="G8" t="n">
-        <v>1.61</v>
+        <v>6.8</v>
       </c>
       <c r="H8" t="n">
-        <v>7.6</v>
+        <v>1.66</v>
       </c>
       <c r="I8" t="n">
-        <v>8.4</v>
+        <v>1.67</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="O8" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="T8" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="U8" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.13</v>
+        <v>2.52</v>
       </c>
       <c r="W8" t="n">
-        <v>2.64</v>
+        <v>1.16</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>19</v>
+        <v>6.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>70</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA8" t="n">
-        <v>320</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.4</v>
+        <v>18.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>180</v>
+        <v>18.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.8</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>26</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14.5</v>
+        <v>220</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AM8" t="n">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
+        <v>2.12</v>
       </c>
       <c r="G9" t="n">
-        <v>2.72</v>
+        <v>2.14</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.94</v>
+        <v>5.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3.5</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.06</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.35</v>
+        <v>1.12</v>
       </c>
       <c r="S9" t="n">
-        <v>3.7</v>
+        <v>8.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>2.74</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="V9" t="n">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="W9" t="n">
-        <v>1.58</v>
+        <v>1.87</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="n">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>5.3</v>
       </c>
       <c r="AC9" t="n">
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="AJ9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>410</v>
+      </c>
+      <c r="AN9" t="n">
         <v>40</v>
       </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>27</v>
-      </c>
       <c r="AO9" t="n">
-        <v>30</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,396 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>CD Nacional Funchal</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="G10" t="n">
-        <v>7.2</v>
+        <v>1.96</v>
       </c>
       <c r="H10" t="n">
-        <v>1.63</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
-        <v>1.64</v>
+        <v>4.7</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
         <v>1.48</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R10" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="V10" t="n">
-        <v>2.58</v>
+        <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>1.16</v>
+        <v>2.02</v>
       </c>
       <c r="X10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.8</v>
+        <v>14.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.199999999999999</v>
+        <v>32</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>7.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="AE10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN10" t="n">
         <v>18</v>
       </c>
-      <c r="AF10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>230</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>180</v>
-      </c>
       <c r="AO10" t="n">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-01-02</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Rayo Vallecano</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Getafe</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="X11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>370</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-01-02</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>17:45:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Guimaraes</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>CD Nacional Funchal</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="X12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,105 +653,105 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Digenis Ypsona</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>1.03</v>
       </c>
       <c r="G2" t="n">
-        <v>3.65</v>
+        <v>1.04</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>2.36</v>
+        <v>27</v>
       </c>
       <c r="L2" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>42</v>
+        <v>1.07</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.6</v>
+        <v>1.07</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>850</v>
       </c>
       <c r="AD2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>850</v>
       </c>
       <c r="AG2" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W3" t="n">
         <v>2.44</v>
       </c>
-      <c r="G3" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
         <v>3.55</v>
       </c>
-      <c r="I3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="AM3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AN3" t="n">
         <v>3.35</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="AO3" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>7.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="I4" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="J4" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.25</v>
+        <v>1.87</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>7.6</v>
+        <v>2.72</v>
       </c>
       <c r="O4" t="n">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.43</v>
+        <v>2.76</v>
       </c>
       <c r="R4" t="n">
-        <v>1.89</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>2.08</v>
+        <v>5.9</v>
       </c>
       <c r="T4" t="n">
-        <v>1.46</v>
+        <v>2.46</v>
       </c>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>1.64</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="X4" t="n">
-        <v>40</v>
+        <v>9.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>18</v>
+        <v>5.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
         <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AF4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="AK4" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="AM4" t="n">
-        <v>50</v>
+        <v>340</v>
       </c>
       <c r="AN4" t="n">
-        <v>28</v>
+        <v>290</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.8</v>
+        <v>1.58</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>1.59</v>
       </c>
       <c r="H5" t="n">
-        <v>1.54</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>1.55</v>
+        <v>8.6</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="P5" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="R5" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="V5" t="n">
-        <v>2.8</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>1.14</v>
+        <v>2.72</v>
       </c>
       <c r="X5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>320</v>
-      </c>
       <c r="AK5" t="n">
-        <v>150</v>
+        <v>19.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>250</v>
+        <v>12.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.6</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.56</v>
+        <v>2.62</v>
       </c>
       <c r="G6" t="n">
-        <v>1.58</v>
+        <v>2.64</v>
       </c>
       <c r="H6" t="n">
-        <v>8.199999999999999</v>
+        <v>3.05</v>
       </c>
       <c r="I6" t="n">
-        <v>8.800000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="T6" t="n">
-        <v>2.4</v>
+        <v>1.84</v>
       </c>
       <c r="U6" t="n">
-        <v>1.69</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>1.47</v>
       </c>
       <c r="W6" t="n">
-        <v>2.72</v>
+        <v>1.6</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>75</v>
+        <v>19.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>330</v>
+        <v>48</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE6" t="n">
         <v>34</v>
       </c>
-      <c r="AE6" t="n">
-        <v>190</v>
-      </c>
       <c r="AF6" t="n">
-        <v>7.8</v>
+        <v>15.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AK6" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AO6" t="n">
-        <v>400</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.66</v>
+        <v>6.8</v>
       </c>
       <c r="G7" t="n">
-        <v>2.68</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.98</v>
+        <v>1.66</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="J7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N7" t="n">
         <v>3.4</v>
       </c>
-      <c r="K7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.75</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.79</v>
+        <v>2.18</v>
       </c>
       <c r="U7" t="n">
-        <v>2.22</v>
+        <v>1.81</v>
       </c>
       <c r="V7" t="n">
-        <v>1.49</v>
+        <v>2.52</v>
       </c>
       <c r="W7" t="n">
-        <v>1.59</v>
+        <v>1.16</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>6.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>8</v>
       </c>
       <c r="AA7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI7" t="n">
         <v>46</v>
       </c>
-      <c r="AB7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AJ7" t="n">
+        <v>260</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>190</v>
+      </c>
+      <c r="AO7" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.6</v>
+        <v>2.12</v>
       </c>
       <c r="G8" t="n">
-        <v>6.8</v>
+        <v>2.14</v>
       </c>
       <c r="H8" t="n">
-        <v>1.66</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.67</v>
+        <v>5.2</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>2.98</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="N8" t="n">
-        <v>3.45</v>
+        <v>2.26</v>
       </c>
       <c r="O8" t="n">
-        <v>1.39</v>
+        <v>1.77</v>
       </c>
       <c r="P8" t="n">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="S8" t="n">
-        <v>4.1</v>
+        <v>7.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.18</v>
+        <v>2.68</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.52</v>
+        <v>1.23</v>
       </c>
       <c r="W8" t="n">
-        <v>1.16</v>
+        <v>1.88</v>
       </c>
       <c r="X8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG8" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>26</v>
-      </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="AJ8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>320</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO8" t="n">
         <v>220</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>200</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>11.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,261 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>CD Nacional Funchal</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="G9" t="n">
-        <v>2.14</v>
+        <v>1.94</v>
       </c>
       <c r="H9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I9" t="n">
         <v>5</v>
       </c>
-      <c r="I9" t="n">
-        <v>5.1</v>
-      </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.78</v>
+        <v>1.48</v>
       </c>
       <c r="M9" t="n">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.18</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.82</v>
+        <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.5</v>
+        <v>2.26</v>
       </c>
       <c r="R9" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>8.4</v>
+        <v>4.3</v>
       </c>
       <c r="T9" t="n">
-        <v>2.74</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>1.55</v>
+        <v>1.94</v>
       </c>
       <c r="V9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="X9" t="n">
-        <v>6.2</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.3</v>
+        <v>7.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="n">
         <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AJ9" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
-        <v>410</v>
+        <v>150</v>
       </c>
       <c r="AN9" t="n">
-        <v>40</v>
+        <v>17.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-01-02</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>17:45:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Guimaraes</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>CD Nacional Funchal</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="X10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Digenis Ypsona</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.03</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.04</v>
-      </c>
       <c r="H2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>34</v>
       </c>
       <c r="K2" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>1.07</v>
+        <v>100</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>100</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,22 +733,22 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
         <v>1.07</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>850</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>850</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.67</v>
+        <v>70</v>
       </c>
       <c r="G3" t="n">
-        <v>1.69</v>
+        <v>90</v>
       </c>
       <c r="H3" t="n">
-        <v>8.6</v>
+        <v>1.15</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>1.16</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>8.4</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,67 +826,67 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V3" t="n">
-        <v>1.12</v>
+        <v>7.4</v>
       </c>
       <c r="W3" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>2.42</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -898,22 +898,22 @@
         <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>70</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="S4" t="n">
+        <v>36</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
         <v>7.4</v>
       </c>
-      <c r="G4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="AI4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO4" t="n">
         <v>170</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>340</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>290</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.58</v>
+        <v>1.27</v>
       </c>
       <c r="G5" t="n">
-        <v>1.59</v>
+        <v>1.28</v>
       </c>
       <c r="H5" t="n">
-        <v>8.199999999999999</v>
+        <v>36</v>
       </c>
       <c r="I5" t="n">
-        <v>8.6</v>
+        <v>38</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="O5" t="n">
-        <v>1.46</v>
+        <v>1.89</v>
       </c>
       <c r="P5" t="n">
-        <v>1.7</v>
+        <v>1.16</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.36</v>
+        <v>7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.02</v>
       </c>
       <c r="S5" t="n">
-        <v>4.6</v>
+        <v>29</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.69</v>
+        <v>1.39</v>
       </c>
       <c r="V5" t="n">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="W5" t="n">
-        <v>2.72</v>
+        <v>4.7</v>
       </c>
       <c r="X5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.4</v>
+        <v>2.08</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AE5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AI5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>19.5</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>12.5</v>
+        <v>210</v>
       </c>
       <c r="AO5" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,531 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>CD Nacional Funchal</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.62</v>
+        <v>2.22</v>
       </c>
       <c r="G6" t="n">
-        <v>2.64</v>
+        <v>2.24</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45</v>
+        <v>2.92</v>
       </c>
       <c r="L6" t="n">
-        <v>1.46</v>
+        <v>2.54</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>2.16</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.84</v>
       </c>
       <c r="P6" t="n">
-        <v>1.86</v>
+        <v>1.36</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.14</v>
+        <v>3.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="S6" t="n">
-        <v>3.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T6" t="n">
-        <v>1.84</v>
+        <v>2.7</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>1.53</v>
       </c>
       <c r="V6" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="n">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>5.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AF6" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AI6" t="n">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="AJ6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-01-02</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Cagliari</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>AC Milan</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="X7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>260</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>190</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-01-02</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Rayo Vallecano</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Getafe</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="X8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM8" t="n">
         <v>320</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-01-02</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>17:45:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Guimaraes</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>CD Nacional Funchal</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="X9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
